--- a/02_report_result/result_0304.xlsx
+++ b/02_report_result/result_0304.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\01_data\50_Personal\16_WQIModel\WQi-Model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\01_data\50_Personal\16_WQIModel\WQi-Model\02_report_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BAD5DB9-4428-4AFD-8897-0AC17633EFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA68E075-4564-4587-9BA4-E03D67EA22BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="6" xr2:uid="{67EB1B11-5F84-4CE6-82E6-AD0190963FD3}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="62">
   <si>
     <t>Set</t>
   </si>
@@ -211,6 +211,24 @@
   <si>
     <t>epochs</t>
   </si>
+  <si>
+    <t>Input -&gt; (Dense - Dropout)x layer -&gt; Output</t>
+  </si>
+  <si>
+    <t>architecture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">early stoping </t>
+  </si>
+  <si>
+    <t>monitor "val_loss"</t>
+  </si>
+  <si>
+    <t>Regularization</t>
+  </si>
+  <si>
+    <t>Dropout(0.1)</t>
+  </si>
 </sst>
 </file>
 
@@ -352,6 +370,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -367,13 +391,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1097,56 +1115,56 @@
       </c>
     </row>
     <row r="4" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
-      <c r="P4" s="8" t="s">
+      <c r="P4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
-      <c r="W4" s="8" t="s">
+      <c r="W4" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
       <c r="AB4" s="7"/>
       <c r="AC4" s="7"/>
-      <c r="AD4" s="8" t="s">
+      <c r="AD4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AE4" s="8"/>
-      <c r="AF4" s="8"/>
-      <c r="AG4" s="8"/>
-      <c r="AH4" s="8"/>
-      <c r="AK4" s="8" t="s">
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="10"/>
+      <c r="AK4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AL4" s="8"/>
-      <c r="AM4" s="8"/>
-      <c r="AN4" s="8"/>
-      <c r="AO4" s="8"/>
+      <c r="AL4" s="10"/>
+      <c r="AM4" s="10"/>
+      <c r="AN4" s="10"/>
+      <c r="AO4" s="10"/>
     </row>
     <row r="5" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
@@ -21330,138 +21348,165 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3373EA0E-BBCA-4ED4-9AE3-EB49A1A8482A}">
-  <dimension ref="C5:E16"/>
+  <dimension ref="C5:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="E19" sqref="C12:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="22.88671875" customWidth="1"/>
     <col min="4" max="4" width="21.88671875" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="5" max="5" width="37.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="14" t="s">
         <v>38</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="8">
         <v>800</v>
       </c>
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C6" s="12"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="8">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C7" s="12"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C8" s="12"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="8" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C10" s="12"/>
-      <c r="D10" s="14" t="s">
+      <c r="C10" s="14"/>
+      <c r="D10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C11" s="12"/>
-      <c r="D11" s="14" t="s">
+      <c r="C11" s="14"/>
+      <c r="D11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="8">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="8" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C13" s="12"/>
-      <c r="D13" s="14" t="s">
+      <c r="C13" s="14"/>
+      <c r="D13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C14" s="12"/>
-      <c r="D14" s="14" t="s">
+      <c r="C14" s="14"/>
+      <c r="D14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="8" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C15" s="12"/>
-      <c r="D15" s="14" t="s">
+      <c r="C15" s="14"/>
+      <c r="D15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="8">
         <v>1E-3</v>
       </c>
     </row>
     <row r="16" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C16" s="12"/>
-      <c r="D16" s="14" t="s">
+      <c r="C16" s="14"/>
+      <c r="D16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="8">
         <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C17" s="14"/>
+      <c r="D17" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C18" s="14"/>
+      <c r="D18" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C19" s="14"/>
+      <c r="D19" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C5:C8"/>
     <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="C12:C19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
